--- a/opendata.xlsx
+++ b/opendata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP}\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\SIS\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD0298-BC39-4309-8827-728573CB6392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47277E89-1E0B-4FEA-83E7-89E5A8090132}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{7C7EE50B-D130-496C-9F10-F76DFF4FC2AD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7C7EE50B-D130-496C-9F10-F76DFF4FC2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="85">
   <si>
     <t>AÑO</t>
   </si>
@@ -193,6 +193,93 @@
   </si>
   <si>
     <t>INTERVENCIÓN MÉDICO-QUIRÚRGICA AMBULATORIA</t>
+  </si>
+  <si>
+    <t>TRATAMIENTO DE ITS EN ADOLESCENTES, ADULTOS Y ADULTOS MAYORES</t>
+  </si>
+  <si>
+    <t>HUANCHAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPLEMENTO DE MICRONUTRIENTES </t>
+  </si>
+  <si>
+    <t>TAURIJA</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICO DEL EMBARAZO</t>
+  </si>
+  <si>
+    <t>URPAY</t>
+  </si>
+  <si>
+    <t>CONTROL DE CRECIMIENTO Y DESARROLLO EN MENORES DE 0 - 4 AÑOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATENCIÓN INTEGRAL DE SALUD DEL JOVEN Y  ADULTO </t>
+  </si>
+  <si>
+    <t>PARIAMARCA</t>
+  </si>
+  <si>
+    <t>ATENCIÓN DEL PUERPERIO NORMAL</t>
+  </si>
+  <si>
+    <t>ATENCIÓN DE PARTO VAGINAL</t>
+  </si>
+  <si>
+    <t>SÁNCHEZ CARRIÓN</t>
+  </si>
+  <si>
+    <t>HUAMACHUCO</t>
+  </si>
+  <si>
+    <t>REGION LA LIBERTAD - SALUD SANCHEZ CARRION</t>
+  </si>
+  <si>
+    <t>HOSPITAL DE APOYO LEONCIO PRADO</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>EXÁMENES DE ECOGRAFÍA OBSTÉTRICA</t>
+  </si>
+  <si>
+    <t>ATENCIÓN INTEGRAL DEL ADOLESCENTE</t>
+  </si>
+  <si>
+    <t>INTERNAMIENTO EN EESS SIN INTERVENCIÓN QUIRÚRGICA</t>
+  </si>
+  <si>
+    <t>TELEORIENTACIÓN CON PRESCRIPCIÓN Y ENTREGA DE MEDICAMENTOS</t>
+  </si>
+  <si>
+    <t>TELEMONITOREO CON PRESCRIPCIÓN Y ENTREGA DE MEDICAMENTOS</t>
+  </si>
+  <si>
+    <t>CESÁREA</t>
+  </si>
+  <si>
+    <t>APOYO AL DIAGNÓSTICO</t>
+  </si>
+  <si>
+    <t>CHOQUIZONGUILLO</t>
+  </si>
+  <si>
+    <t>PUENTE PIEDRA</t>
+  </si>
+  <si>
+    <t>ATENCIÓN PRECONCEPCIONAL</t>
+  </si>
+  <si>
+    <t>EL PALLAR</t>
+  </si>
+  <si>
+    <t>EXTRACCIÓN DENTAL (EXODONCIA)</t>
+  </si>
+  <si>
+    <t>EL OLIVO</t>
   </si>
 </sst>
 </file>
@@ -248,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAA0950-977A-48CE-B617-8395C2C33DDB}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R52" sqref="A52:R185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3255,6 +3342,4776 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2020</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>130811</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52">
+        <v>845</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>5391</v>
+      </c>
+      <c r="J52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52">
+        <v>74</v>
+      </c>
+      <c r="N52" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>130811</v>
+      </c>
+      <c r="F53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53">
+        <v>845</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>17922</v>
+      </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+      <c r="N53" t="s">
+        <v>58</v>
+      </c>
+      <c r="O53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2020</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>130811</v>
+      </c>
+      <c r="F54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54">
+        <v>845</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>17922</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54">
+        <v>8</v>
+      </c>
+      <c r="N54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2020</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>130811</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55">
+        <v>845</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>17922</v>
+      </c>
+      <c r="J55" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55">
+        <v>18</v>
+      </c>
+      <c r="N55" t="s">
+        <v>40</v>
+      </c>
+      <c r="O55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2020</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>130811</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>845</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>17922</v>
+      </c>
+      <c r="J56" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56">
+        <v>22</v>
+      </c>
+      <c r="N56" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>130811</v>
+      </c>
+      <c r="F57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <v>845</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>17922</v>
+      </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57">
+        <v>56</v>
+      </c>
+      <c r="N57" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>130812</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58">
+        <v>845</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>5392</v>
+      </c>
+      <c r="J58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s">
+        <v>60</v>
+      </c>
+      <c r="O58" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>130812</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59">
+        <v>845</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>5392</v>
+      </c>
+      <c r="J59" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>22</v>
+      </c>
+      <c r="N59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>130812</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <v>845</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>5392</v>
+      </c>
+      <c r="J60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60">
+        <v>56</v>
+      </c>
+      <c r="N60" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>130812</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <v>845</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>5392</v>
+      </c>
+      <c r="J61" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61">
+        <v>56</v>
+      </c>
+      <c r="N61" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>130812</v>
+      </c>
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <v>845</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>5392</v>
+      </c>
+      <c r="J62" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62">
+        <v>62</v>
+      </c>
+      <c r="N62" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2020</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>130812</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63">
+        <v>845</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>5392</v>
+      </c>
+      <c r="J63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63">
+        <v>56</v>
+      </c>
+      <c r="N63" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2020</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <v>130813</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64">
+        <v>845</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>5393</v>
+      </c>
+      <c r="J64" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" t="s">
+        <v>33</v>
+      </c>
+      <c r="P64" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2020</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>130813</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65">
+        <v>845</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>5393</v>
+      </c>
+      <c r="J65" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65">
+        <v>22</v>
+      </c>
+      <c r="N65" t="s">
+        <v>41</v>
+      </c>
+      <c r="O65" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2020</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>130813</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66">
+        <v>845</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>5393</v>
+      </c>
+      <c r="J66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66">
+        <v>22</v>
+      </c>
+      <c r="N66" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" t="s">
+        <v>33</v>
+      </c>
+      <c r="P66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2020</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>130813</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67">
+        <v>845</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>5393</v>
+      </c>
+      <c r="J67" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67">
+        <v>56</v>
+      </c>
+      <c r="N67" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>130813</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68">
+        <v>845</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>5393</v>
+      </c>
+      <c r="J68" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68">
+        <v>56</v>
+      </c>
+      <c r="N68" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2020</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>130813</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69">
+        <v>845</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>5393</v>
+      </c>
+      <c r="J69" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69">
+        <v>62</v>
+      </c>
+      <c r="N69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O69" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2020</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>130813</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70">
+        <v>845</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>5393</v>
+      </c>
+      <c r="J70" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70">
+        <v>904</v>
+      </c>
+      <c r="N70" t="s">
+        <v>63</v>
+      </c>
+      <c r="O70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>130813</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71">
+        <v>845</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>5393</v>
+      </c>
+      <c r="J71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71">
+        <v>904</v>
+      </c>
+      <c r="N71" t="s">
+        <v>63</v>
+      </c>
+      <c r="O71" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2020</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>130813</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72">
+        <v>845</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>5394</v>
+      </c>
+      <c r="J72" t="s">
+        <v>64</v>
+      </c>
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72">
+        <v>8</v>
+      </c>
+      <c r="N72" t="s">
+        <v>36</v>
+      </c>
+      <c r="O72" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>130813</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73">
+        <v>845</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>5394</v>
+      </c>
+      <c r="J73" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+      <c r="N73" t="s">
+        <v>65</v>
+      </c>
+      <c r="O73" t="s">
+        <v>25</v>
+      </c>
+      <c r="P73" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2020</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>130813</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74">
+        <v>845</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>5394</v>
+      </c>
+      <c r="J74" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74">
+        <v>19</v>
+      </c>
+      <c r="N74" t="s">
+        <v>52</v>
+      </c>
+      <c r="O74" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2020</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>130813</v>
+      </c>
+      <c r="F75" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75">
+        <v>845</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>5394</v>
+      </c>
+      <c r="J75" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75">
+        <v>50</v>
+      </c>
+      <c r="N75" t="s">
+        <v>43</v>
+      </c>
+      <c r="O75" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2020</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>130813</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76">
+        <v>845</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>5394</v>
+      </c>
+      <c r="J76" t="s">
+        <v>64</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76">
+        <v>56</v>
+      </c>
+      <c r="N76" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>130813</v>
+      </c>
+      <c r="F77" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77">
+        <v>845</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>5394</v>
+      </c>
+      <c r="J77" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77">
+        <v>118</v>
+      </c>
+      <c r="N77" t="s">
+        <v>44</v>
+      </c>
+      <c r="O77" t="s">
+        <v>25</v>
+      </c>
+      <c r="P77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2020</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>130813</v>
+      </c>
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78">
+        <v>845</v>
+      </c>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>5394</v>
+      </c>
+      <c r="J78" t="s">
+        <v>64</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78">
+        <v>119</v>
+      </c>
+      <c r="N78" t="s">
+        <v>53</v>
+      </c>
+      <c r="O78" t="s">
+        <v>25</v>
+      </c>
+      <c r="P78" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>130813</v>
+      </c>
+      <c r="F79" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79">
+        <v>845</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79">
+        <v>5394</v>
+      </c>
+      <c r="J79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79">
+        <v>54</v>
+      </c>
+      <c r="N79" t="s">
+        <v>66</v>
+      </c>
+      <c r="O79" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80">
+        <v>130901</v>
+      </c>
+      <c r="F80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80">
+        <v>851</v>
+      </c>
+      <c r="H80" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80">
+        <v>5349</v>
+      </c>
+      <c r="J80" t="s">
+        <v>70</v>
+      </c>
+      <c r="K80" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80">
+        <v>11</v>
+      </c>
+      <c r="N80" t="s">
+        <v>38</v>
+      </c>
+      <c r="O80" t="s">
+        <v>25</v>
+      </c>
+      <c r="P80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81">
+        <v>130901</v>
+      </c>
+      <c r="F81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81">
+        <v>851</v>
+      </c>
+      <c r="H81" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81">
+        <v>5349</v>
+      </c>
+      <c r="J81" t="s">
+        <v>70</v>
+      </c>
+      <c r="K81" t="s">
+        <v>71</v>
+      </c>
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81">
+        <v>13</v>
+      </c>
+      <c r="N81" t="s">
+        <v>72</v>
+      </c>
+      <c r="O81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2020</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82">
+        <v>130901</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82">
+        <v>851</v>
+      </c>
+      <c r="H82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I82">
+        <v>5349</v>
+      </c>
+      <c r="J82" t="s">
+        <v>70</v>
+      </c>
+      <c r="K82" t="s">
+        <v>71</v>
+      </c>
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82">
+        <v>16</v>
+      </c>
+      <c r="N82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O82" t="s">
+        <v>33</v>
+      </c>
+      <c r="P82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83">
+        <v>130901</v>
+      </c>
+      <c r="F83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83">
+        <v>851</v>
+      </c>
+      <c r="H83" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83">
+        <v>5349</v>
+      </c>
+      <c r="J83" t="s">
+        <v>70</v>
+      </c>
+      <c r="K83" t="s">
+        <v>71</v>
+      </c>
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83">
+        <v>17</v>
+      </c>
+      <c r="N83" t="s">
+        <v>73</v>
+      </c>
+      <c r="O83" t="s">
+        <v>33</v>
+      </c>
+      <c r="P83" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84">
+        <v>130901</v>
+      </c>
+      <c r="F84" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84">
+        <v>851</v>
+      </c>
+      <c r="H84" t="s">
+        <v>69</v>
+      </c>
+      <c r="I84">
+        <v>5349</v>
+      </c>
+      <c r="J84" t="s">
+        <v>70</v>
+      </c>
+      <c r="K84" t="s">
+        <v>71</v>
+      </c>
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84">
+        <v>22</v>
+      </c>
+      <c r="N84" t="s">
+        <v>41</v>
+      </c>
+      <c r="O84" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85">
+        <v>130901</v>
+      </c>
+      <c r="F85" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85">
+        <v>851</v>
+      </c>
+      <c r="H85" t="s">
+        <v>69</v>
+      </c>
+      <c r="I85">
+        <v>5349</v>
+      </c>
+      <c r="J85" t="s">
+        <v>70</v>
+      </c>
+      <c r="K85" t="s">
+        <v>71</v>
+      </c>
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85">
+        <v>22</v>
+      </c>
+      <c r="N85" t="s">
+        <v>41</v>
+      </c>
+      <c r="O85" t="s">
+        <v>33</v>
+      </c>
+      <c r="P85" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86">
+        <v>130901</v>
+      </c>
+      <c r="F86" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86">
+        <v>851</v>
+      </c>
+      <c r="H86" t="s">
+        <v>69</v>
+      </c>
+      <c r="I86">
+        <v>5349</v>
+      </c>
+      <c r="J86" t="s">
+        <v>70</v>
+      </c>
+      <c r="K86" t="s">
+        <v>71</v>
+      </c>
+      <c r="L86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86">
+        <v>56</v>
+      </c>
+      <c r="N86" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q86">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87">
+        <v>130901</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87">
+        <v>851</v>
+      </c>
+      <c r="H87" t="s">
+        <v>69</v>
+      </c>
+      <c r="I87">
+        <v>5349</v>
+      </c>
+      <c r="J87" t="s">
+        <v>70</v>
+      </c>
+      <c r="K87" t="s">
+        <v>71</v>
+      </c>
+      <c r="L87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87">
+        <v>56</v>
+      </c>
+      <c r="N87" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P87" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88">
+        <v>130901</v>
+      </c>
+      <c r="F88" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88">
+        <v>851</v>
+      </c>
+      <c r="H88" t="s">
+        <v>69</v>
+      </c>
+      <c r="I88">
+        <v>5349</v>
+      </c>
+      <c r="J88" t="s">
+        <v>70</v>
+      </c>
+      <c r="K88" t="s">
+        <v>71</v>
+      </c>
+      <c r="L88" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88">
+        <v>62</v>
+      </c>
+      <c r="N88" t="s">
+        <v>24</v>
+      </c>
+      <c r="O88" t="s">
+        <v>33</v>
+      </c>
+      <c r="P88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2020</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89">
+        <v>130901</v>
+      </c>
+      <c r="F89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89">
+        <v>851</v>
+      </c>
+      <c r="H89" t="s">
+        <v>69</v>
+      </c>
+      <c r="I89">
+        <v>5349</v>
+      </c>
+      <c r="J89" t="s">
+        <v>70</v>
+      </c>
+      <c r="K89" t="s">
+        <v>71</v>
+      </c>
+      <c r="L89" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89">
+        <v>63</v>
+      </c>
+      <c r="N89" t="s">
+        <v>49</v>
+      </c>
+      <c r="O89" t="s">
+        <v>33</v>
+      </c>
+      <c r="P89" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90">
+        <v>130901</v>
+      </c>
+      <c r="F90" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90">
+        <v>851</v>
+      </c>
+      <c r="H90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I90">
+        <v>5349</v>
+      </c>
+      <c r="J90" t="s">
+        <v>70</v>
+      </c>
+      <c r="K90" t="s">
+        <v>71</v>
+      </c>
+      <c r="L90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90">
+        <v>65</v>
+      </c>
+      <c r="N90" t="s">
+        <v>74</v>
+      </c>
+      <c r="O90" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91">
+        <v>130901</v>
+      </c>
+      <c r="F91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91">
+        <v>851</v>
+      </c>
+      <c r="H91" t="s">
+        <v>69</v>
+      </c>
+      <c r="I91">
+        <v>5349</v>
+      </c>
+      <c r="J91" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" t="s">
+        <v>71</v>
+      </c>
+      <c r="L91" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91">
+        <v>65</v>
+      </c>
+      <c r="N91" t="s">
+        <v>74</v>
+      </c>
+      <c r="O91" t="s">
+        <v>33</v>
+      </c>
+      <c r="P91" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92">
+        <v>130901</v>
+      </c>
+      <c r="F92" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92">
+        <v>851</v>
+      </c>
+      <c r="H92" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92">
+        <v>5349</v>
+      </c>
+      <c r="J92" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" t="s">
+        <v>71</v>
+      </c>
+      <c r="L92" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92">
+        <v>909</v>
+      </c>
+      <c r="N92" t="s">
+        <v>75</v>
+      </c>
+      <c r="O92" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q92">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93">
+        <v>130901</v>
+      </c>
+      <c r="F93" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93">
+        <v>851</v>
+      </c>
+      <c r="H93" t="s">
+        <v>69</v>
+      </c>
+      <c r="I93">
+        <v>5349</v>
+      </c>
+      <c r="J93" t="s">
+        <v>70</v>
+      </c>
+      <c r="K93" t="s">
+        <v>71</v>
+      </c>
+      <c r="L93" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93">
+        <v>909</v>
+      </c>
+      <c r="N93" t="s">
+        <v>75</v>
+      </c>
+      <c r="O93" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2020</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94">
+        <v>130901</v>
+      </c>
+      <c r="F94" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94">
+        <v>851</v>
+      </c>
+      <c r="H94" t="s">
+        <v>69</v>
+      </c>
+      <c r="I94">
+        <v>5349</v>
+      </c>
+      <c r="J94" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" t="s">
+        <v>71</v>
+      </c>
+      <c r="L94" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94">
+        <v>910</v>
+      </c>
+      <c r="N94" t="s">
+        <v>76</v>
+      </c>
+      <c r="O94" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q94">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2020</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95">
+        <v>130901</v>
+      </c>
+      <c r="F95" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95">
+        <v>851</v>
+      </c>
+      <c r="H95" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95">
+        <v>5349</v>
+      </c>
+      <c r="J95" t="s">
+        <v>70</v>
+      </c>
+      <c r="K95" t="s">
+        <v>71</v>
+      </c>
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95">
+        <v>20</v>
+      </c>
+      <c r="N95" t="s">
+        <v>48</v>
+      </c>
+      <c r="O95" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2020</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96">
+        <v>130901</v>
+      </c>
+      <c r="F96" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96">
+        <v>851</v>
+      </c>
+      <c r="H96" t="s">
+        <v>69</v>
+      </c>
+      <c r="I96">
+        <v>5349</v>
+      </c>
+      <c r="J96" t="s">
+        <v>70</v>
+      </c>
+      <c r="K96" t="s">
+        <v>71</v>
+      </c>
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
+      <c r="M96">
+        <v>55</v>
+      </c>
+      <c r="N96" t="s">
+        <v>77</v>
+      </c>
+      <c r="O96" t="s">
+        <v>25</v>
+      </c>
+      <c r="P96" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2020</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97">
+        <v>130901</v>
+      </c>
+      <c r="F97" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97">
+        <v>851</v>
+      </c>
+      <c r="H97" t="s">
+        <v>69</v>
+      </c>
+      <c r="I97">
+        <v>5349</v>
+      </c>
+      <c r="J97" t="s">
+        <v>70</v>
+      </c>
+      <c r="K97" t="s">
+        <v>71</v>
+      </c>
+      <c r="L97" t="s">
+        <v>27</v>
+      </c>
+      <c r="M97">
+        <v>63</v>
+      </c>
+      <c r="N97" t="s">
+        <v>49</v>
+      </c>
+      <c r="O97" t="s">
+        <v>33</v>
+      </c>
+      <c r="P97" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2020</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98">
+        <v>130901</v>
+      </c>
+      <c r="F98" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98">
+        <v>851</v>
+      </c>
+      <c r="H98" t="s">
+        <v>69</v>
+      </c>
+      <c r="I98">
+        <v>5349</v>
+      </c>
+      <c r="J98" t="s">
+        <v>70</v>
+      </c>
+      <c r="K98" t="s">
+        <v>71</v>
+      </c>
+      <c r="L98" t="s">
+        <v>27</v>
+      </c>
+      <c r="M98">
+        <v>71</v>
+      </c>
+      <c r="N98" t="s">
+        <v>78</v>
+      </c>
+      <c r="O98" t="s">
+        <v>25</v>
+      </c>
+      <c r="P98" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2020</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99">
+        <v>130901</v>
+      </c>
+      <c r="F99" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99">
+        <v>851</v>
+      </c>
+      <c r="H99" t="s">
+        <v>69</v>
+      </c>
+      <c r="I99">
+        <v>5350</v>
+      </c>
+      <c r="J99" t="s">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99">
+        <v>9</v>
+      </c>
+      <c r="N99" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2020</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100">
+        <v>130901</v>
+      </c>
+      <c r="F100" t="s">
+        <v>68</v>
+      </c>
+      <c r="G100">
+        <v>851</v>
+      </c>
+      <c r="H100" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100">
+        <v>5350</v>
+      </c>
+      <c r="J100" t="s">
+        <v>79</v>
+      </c>
+      <c r="K100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100">
+        <v>16</v>
+      </c>
+      <c r="N100" t="s">
+        <v>39</v>
+      </c>
+      <c r="O100" t="s">
+        <v>33</v>
+      </c>
+      <c r="P100" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q100">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2020</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101">
+        <v>130901</v>
+      </c>
+      <c r="F101" t="s">
+        <v>68</v>
+      </c>
+      <c r="G101">
+        <v>851</v>
+      </c>
+      <c r="H101" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101">
+        <v>5350</v>
+      </c>
+      <c r="J101" t="s">
+        <v>79</v>
+      </c>
+      <c r="K101" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101">
+        <v>17</v>
+      </c>
+      <c r="N101" t="s">
+        <v>73</v>
+      </c>
+      <c r="O101" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2020</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102">
+        <v>130901</v>
+      </c>
+      <c r="F102" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102">
+        <v>851</v>
+      </c>
+      <c r="H102" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102">
+        <v>5350</v>
+      </c>
+      <c r="J102" t="s">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" t="s">
+        <v>23</v>
+      </c>
+      <c r="M102">
+        <v>22</v>
+      </c>
+      <c r="N102" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2020</v>
+      </c>
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103">
+        <v>130901</v>
+      </c>
+      <c r="F103" t="s">
+        <v>68</v>
+      </c>
+      <c r="G103">
+        <v>851</v>
+      </c>
+      <c r="H103" t="s">
+        <v>69</v>
+      </c>
+      <c r="I103">
+        <v>5350</v>
+      </c>
+      <c r="J103" t="s">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103" t="s">
+        <v>23</v>
+      </c>
+      <c r="M103">
+        <v>56</v>
+      </c>
+      <c r="N103" t="s">
+        <v>31</v>
+      </c>
+      <c r="O103" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2020</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104">
+        <v>130901</v>
+      </c>
+      <c r="F104" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104">
+        <v>851</v>
+      </c>
+      <c r="H104" t="s">
+        <v>69</v>
+      </c>
+      <c r="I104">
+        <v>5350</v>
+      </c>
+      <c r="J104" t="s">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104" t="s">
+        <v>23</v>
+      </c>
+      <c r="M104">
+        <v>56</v>
+      </c>
+      <c r="N104" t="s">
+        <v>31</v>
+      </c>
+      <c r="O104" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2020</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105">
+        <v>130901</v>
+      </c>
+      <c r="F105" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105">
+        <v>851</v>
+      </c>
+      <c r="H105" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105">
+        <v>5350</v>
+      </c>
+      <c r="J105" t="s">
+        <v>79</v>
+      </c>
+      <c r="K105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" t="s">
+        <v>23</v>
+      </c>
+      <c r="M105">
+        <v>71</v>
+      </c>
+      <c r="N105" t="s">
+        <v>78</v>
+      </c>
+      <c r="O105" t="s">
+        <v>33</v>
+      </c>
+      <c r="P105" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2020</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106">
+        <v>130901</v>
+      </c>
+      <c r="F106" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106">
+        <v>851</v>
+      </c>
+      <c r="H106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106">
+        <v>5350</v>
+      </c>
+      <c r="J106" t="s">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" t="s">
+        <v>27</v>
+      </c>
+      <c r="M106">
+        <v>18</v>
+      </c>
+      <c r="N106" t="s">
+        <v>40</v>
+      </c>
+      <c r="O106" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2020</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107">
+        <v>130901</v>
+      </c>
+      <c r="F107" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107">
+        <v>851</v>
+      </c>
+      <c r="H107" t="s">
+        <v>69</v>
+      </c>
+      <c r="I107">
+        <v>5351</v>
+      </c>
+      <c r="J107" t="s">
+        <v>80</v>
+      </c>
+      <c r="K107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107" t="s">
+        <v>23</v>
+      </c>
+      <c r="M107">
+        <v>8</v>
+      </c>
+      <c r="N107" t="s">
+        <v>36</v>
+      </c>
+      <c r="O107" t="s">
+        <v>33</v>
+      </c>
+      <c r="P107" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q107">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2020</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108">
+        <v>130901</v>
+      </c>
+      <c r="F108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G108">
+        <v>851</v>
+      </c>
+      <c r="H108" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108">
+        <v>5351</v>
+      </c>
+      <c r="J108" t="s">
+        <v>80</v>
+      </c>
+      <c r="K108" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" t="s">
+        <v>23</v>
+      </c>
+      <c r="M108">
+        <v>9</v>
+      </c>
+      <c r="N108" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" t="s">
+        <v>25</v>
+      </c>
+      <c r="P108" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q108">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2020</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109">
+        <v>130901</v>
+      </c>
+      <c r="F109" t="s">
+        <v>68</v>
+      </c>
+      <c r="G109">
+        <v>851</v>
+      </c>
+      <c r="H109" t="s">
+        <v>69</v>
+      </c>
+      <c r="I109">
+        <v>5351</v>
+      </c>
+      <c r="J109" t="s">
+        <v>80</v>
+      </c>
+      <c r="K109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109">
+        <v>16</v>
+      </c>
+      <c r="N109" t="s">
+        <v>39</v>
+      </c>
+      <c r="O109" t="s">
+        <v>33</v>
+      </c>
+      <c r="P109" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2020</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110">
+        <v>130901</v>
+      </c>
+      <c r="F110" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110">
+        <v>851</v>
+      </c>
+      <c r="H110" t="s">
+        <v>69</v>
+      </c>
+      <c r="I110">
+        <v>5351</v>
+      </c>
+      <c r="J110" t="s">
+        <v>80</v>
+      </c>
+      <c r="K110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" t="s">
+        <v>23</v>
+      </c>
+      <c r="M110">
+        <v>18</v>
+      </c>
+      <c r="N110" t="s">
+        <v>40</v>
+      </c>
+      <c r="O110" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2020</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111">
+        <v>130901</v>
+      </c>
+      <c r="F111" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111">
+        <v>851</v>
+      </c>
+      <c r="H111" t="s">
+        <v>69</v>
+      </c>
+      <c r="I111">
+        <v>5351</v>
+      </c>
+      <c r="J111" t="s">
+        <v>80</v>
+      </c>
+      <c r="K111" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M111">
+        <v>18</v>
+      </c>
+      <c r="N111" t="s">
+        <v>40</v>
+      </c>
+      <c r="O111" t="s">
+        <v>33</v>
+      </c>
+      <c r="P111" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2020</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112">
+        <v>130901</v>
+      </c>
+      <c r="F112" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112">
+        <v>851</v>
+      </c>
+      <c r="H112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I112">
+        <v>5351</v>
+      </c>
+      <c r="J112" t="s">
+        <v>80</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M112">
+        <v>22</v>
+      </c>
+      <c r="N112" t="s">
+        <v>41</v>
+      </c>
+      <c r="O112" t="s">
+        <v>33</v>
+      </c>
+      <c r="P112" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q112">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2020</v>
+      </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113">
+        <v>130901</v>
+      </c>
+      <c r="F113" t="s">
+        <v>68</v>
+      </c>
+      <c r="G113">
+        <v>851</v>
+      </c>
+      <c r="H113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113">
+        <v>5351</v>
+      </c>
+      <c r="J113" t="s">
+        <v>80</v>
+      </c>
+      <c r="K113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" t="s">
+        <v>23</v>
+      </c>
+      <c r="M113">
+        <v>22</v>
+      </c>
+      <c r="N113" t="s">
+        <v>41</v>
+      </c>
+      <c r="O113" t="s">
+        <v>33</v>
+      </c>
+      <c r="P113" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2020</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114">
+        <v>130901</v>
+      </c>
+      <c r="F114" t="s">
+        <v>68</v>
+      </c>
+      <c r="G114">
+        <v>851</v>
+      </c>
+      <c r="H114" t="s">
+        <v>69</v>
+      </c>
+      <c r="I114">
+        <v>5351</v>
+      </c>
+      <c r="J114" t="s">
+        <v>80</v>
+      </c>
+      <c r="K114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" t="s">
+        <v>23</v>
+      </c>
+      <c r="M114">
+        <v>56</v>
+      </c>
+      <c r="N114" t="s">
+        <v>31</v>
+      </c>
+      <c r="O114" t="s">
+        <v>25</v>
+      </c>
+      <c r="P114" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2020</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>67</v>
+      </c>
+      <c r="E115">
+        <v>130901</v>
+      </c>
+      <c r="F115" t="s">
+        <v>68</v>
+      </c>
+      <c r="G115">
+        <v>851</v>
+      </c>
+      <c r="H115" t="s">
+        <v>69</v>
+      </c>
+      <c r="I115">
+        <v>5351</v>
+      </c>
+      <c r="J115" t="s">
+        <v>80</v>
+      </c>
+      <c r="K115" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" t="s">
+        <v>23</v>
+      </c>
+      <c r="M115">
+        <v>56</v>
+      </c>
+      <c r="N115" t="s">
+        <v>31</v>
+      </c>
+      <c r="O115" t="s">
+        <v>33</v>
+      </c>
+      <c r="P115" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2020</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116">
+        <v>130901</v>
+      </c>
+      <c r="F116" t="s">
+        <v>68</v>
+      </c>
+      <c r="G116">
+        <v>851</v>
+      </c>
+      <c r="H116" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116">
+        <v>5351</v>
+      </c>
+      <c r="J116" t="s">
+        <v>80</v>
+      </c>
+      <c r="K116" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M116">
+        <v>56</v>
+      </c>
+      <c r="N116" t="s">
+        <v>31</v>
+      </c>
+      <c r="O116" t="s">
+        <v>33</v>
+      </c>
+      <c r="P116" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2020</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117">
+        <v>130901</v>
+      </c>
+      <c r="F117" t="s">
+        <v>68</v>
+      </c>
+      <c r="G117">
+        <v>851</v>
+      </c>
+      <c r="H117" t="s">
+        <v>69</v>
+      </c>
+      <c r="I117">
+        <v>5351</v>
+      </c>
+      <c r="J117" t="s">
+        <v>80</v>
+      </c>
+      <c r="K117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M117">
+        <v>62</v>
+      </c>
+      <c r="N117" t="s">
+        <v>24</v>
+      </c>
+      <c r="O117" t="s">
+        <v>33</v>
+      </c>
+      <c r="P117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2020</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118">
+        <v>130901</v>
+      </c>
+      <c r="F118" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118">
+        <v>851</v>
+      </c>
+      <c r="H118" t="s">
+        <v>69</v>
+      </c>
+      <c r="I118">
+        <v>5351</v>
+      </c>
+      <c r="J118" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" t="s">
+        <v>23</v>
+      </c>
+      <c r="M118">
+        <v>71</v>
+      </c>
+      <c r="N118" t="s">
+        <v>78</v>
+      </c>
+      <c r="O118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P118" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2020</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>67</v>
+      </c>
+      <c r="E119">
+        <v>130901</v>
+      </c>
+      <c r="F119" t="s">
+        <v>68</v>
+      </c>
+      <c r="G119">
+        <v>851</v>
+      </c>
+      <c r="H119" t="s">
+        <v>69</v>
+      </c>
+      <c r="I119">
+        <v>5351</v>
+      </c>
+      <c r="J119" t="s">
+        <v>80</v>
+      </c>
+      <c r="K119" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" t="s">
+        <v>23</v>
+      </c>
+      <c r="M119">
+        <v>71</v>
+      </c>
+      <c r="N119" t="s">
+        <v>78</v>
+      </c>
+      <c r="O119" t="s">
+        <v>33</v>
+      </c>
+      <c r="P119" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2020</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120">
+        <v>130901</v>
+      </c>
+      <c r="F120" t="s">
+        <v>68</v>
+      </c>
+      <c r="G120">
+        <v>851</v>
+      </c>
+      <c r="H120" t="s">
+        <v>69</v>
+      </c>
+      <c r="I120">
+        <v>5351</v>
+      </c>
+      <c r="J120" t="s">
+        <v>80</v>
+      </c>
+      <c r="K120" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" t="s">
+        <v>23</v>
+      </c>
+      <c r="M120">
+        <v>71</v>
+      </c>
+      <c r="N120" t="s">
+        <v>78</v>
+      </c>
+      <c r="O120" t="s">
+        <v>33</v>
+      </c>
+      <c r="P120" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2020</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>67</v>
+      </c>
+      <c r="E121">
+        <v>130901</v>
+      </c>
+      <c r="F121" t="s">
+        <v>68</v>
+      </c>
+      <c r="G121">
+        <v>851</v>
+      </c>
+      <c r="H121" t="s">
+        <v>69</v>
+      </c>
+      <c r="I121">
+        <v>5351</v>
+      </c>
+      <c r="J121" t="s">
+        <v>80</v>
+      </c>
+      <c r="K121" t="s">
+        <v>22</v>
+      </c>
+      <c r="L121" t="s">
+        <v>23</v>
+      </c>
+      <c r="M121">
+        <v>74</v>
+      </c>
+      <c r="N121" t="s">
+        <v>56</v>
+      </c>
+      <c r="O121" t="s">
+        <v>25</v>
+      </c>
+      <c r="P121" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2020</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122">
+        <v>130901</v>
+      </c>
+      <c r="F122" t="s">
+        <v>68</v>
+      </c>
+      <c r="G122">
+        <v>851</v>
+      </c>
+      <c r="H122" t="s">
+        <v>69</v>
+      </c>
+      <c r="I122">
+        <v>5351</v>
+      </c>
+      <c r="J122" t="s">
+        <v>80</v>
+      </c>
+      <c r="K122" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122" t="s">
+        <v>23</v>
+      </c>
+      <c r="M122">
+        <v>75</v>
+      </c>
+      <c r="N122" t="s">
+        <v>47</v>
+      </c>
+      <c r="O122" t="s">
+        <v>33</v>
+      </c>
+      <c r="P122" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2020</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123">
+        <v>130901</v>
+      </c>
+      <c r="F123" t="s">
+        <v>68</v>
+      </c>
+      <c r="G123">
+        <v>851</v>
+      </c>
+      <c r="H123" t="s">
+        <v>69</v>
+      </c>
+      <c r="I123">
+        <v>5351</v>
+      </c>
+      <c r="J123" t="s">
+        <v>80</v>
+      </c>
+      <c r="K123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" t="s">
+        <v>23</v>
+      </c>
+      <c r="M123">
+        <v>902</v>
+      </c>
+      <c r="N123" t="s">
+        <v>81</v>
+      </c>
+      <c r="O123" t="s">
+        <v>25</v>
+      </c>
+      <c r="P123" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2020</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>67</v>
+      </c>
+      <c r="E124">
+        <v>130901</v>
+      </c>
+      <c r="F124" t="s">
+        <v>68</v>
+      </c>
+      <c r="G124">
+        <v>851</v>
+      </c>
+      <c r="H124" t="s">
+        <v>69</v>
+      </c>
+      <c r="I124">
+        <v>5351</v>
+      </c>
+      <c r="J124" t="s">
+        <v>80</v>
+      </c>
+      <c r="K124" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124" t="s">
+        <v>27</v>
+      </c>
+      <c r="M124">
+        <v>56</v>
+      </c>
+      <c r="N124" t="s">
+        <v>31</v>
+      </c>
+      <c r="O124" t="s">
+        <v>33</v>
+      </c>
+      <c r="P124" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2020</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>67</v>
+      </c>
+      <c r="E125">
+        <v>130901</v>
+      </c>
+      <c r="F125" t="s">
+        <v>68</v>
+      </c>
+      <c r="G125">
+        <v>851</v>
+      </c>
+      <c r="H125" t="s">
+        <v>69</v>
+      </c>
+      <c r="I125">
+        <v>5355</v>
+      </c>
+      <c r="J125" t="s">
+        <v>82</v>
+      </c>
+      <c r="K125" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125" t="s">
+        <v>23</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
+        <v>62</v>
+      </c>
+      <c r="O125" t="s">
+        <v>25</v>
+      </c>
+      <c r="P125" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q125">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2020</v>
+      </c>
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126">
+        <v>130901</v>
+      </c>
+      <c r="F126" t="s">
+        <v>68</v>
+      </c>
+      <c r="G126">
+        <v>851</v>
+      </c>
+      <c r="H126" t="s">
+        <v>69</v>
+      </c>
+      <c r="I126">
+        <v>5355</v>
+      </c>
+      <c r="J126" t="s">
+        <v>82</v>
+      </c>
+      <c r="K126" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" t="s">
+        <v>23</v>
+      </c>
+      <c r="M126">
+        <v>8</v>
+      </c>
+      <c r="N126" t="s">
+        <v>36</v>
+      </c>
+      <c r="O126" t="s">
+        <v>25</v>
+      </c>
+      <c r="P126" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2020</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127">
+        <v>130901</v>
+      </c>
+      <c r="F127" t="s">
+        <v>68</v>
+      </c>
+      <c r="G127">
+        <v>851</v>
+      </c>
+      <c r="H127" t="s">
+        <v>69</v>
+      </c>
+      <c r="I127">
+        <v>5355</v>
+      </c>
+      <c r="J127" t="s">
+        <v>82</v>
+      </c>
+      <c r="K127" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" t="s">
+        <v>23</v>
+      </c>
+      <c r="M127">
+        <v>18</v>
+      </c>
+      <c r="N127" t="s">
+        <v>40</v>
+      </c>
+      <c r="O127" t="s">
+        <v>33</v>
+      </c>
+      <c r="P127" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128">
+        <v>130901</v>
+      </c>
+      <c r="F128" t="s">
+        <v>68</v>
+      </c>
+      <c r="G128">
+        <v>851</v>
+      </c>
+      <c r="H128" t="s">
+        <v>69</v>
+      </c>
+      <c r="I128">
+        <v>5355</v>
+      </c>
+      <c r="J128" t="s">
+        <v>82</v>
+      </c>
+      <c r="K128" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128" t="s">
+        <v>23</v>
+      </c>
+      <c r="M128">
+        <v>22</v>
+      </c>
+      <c r="N128" t="s">
+        <v>41</v>
+      </c>
+      <c r="O128" t="s">
+        <v>25</v>
+      </c>
+      <c r="P128" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2020</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129">
+        <v>130901</v>
+      </c>
+      <c r="F129" t="s">
+        <v>68</v>
+      </c>
+      <c r="G129">
+        <v>851</v>
+      </c>
+      <c r="H129" t="s">
+        <v>69</v>
+      </c>
+      <c r="I129">
+        <v>5355</v>
+      </c>
+      <c r="J129" t="s">
+        <v>82</v>
+      </c>
+      <c r="K129" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129" t="s">
+        <v>23</v>
+      </c>
+      <c r="M129">
+        <v>22</v>
+      </c>
+      <c r="N129" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" t="s">
+        <v>33</v>
+      </c>
+      <c r="P129" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2020</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130">
+        <v>130901</v>
+      </c>
+      <c r="F130" t="s">
+        <v>68</v>
+      </c>
+      <c r="G130">
+        <v>851</v>
+      </c>
+      <c r="H130" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130">
+        <v>5355</v>
+      </c>
+      <c r="J130" t="s">
+        <v>82</v>
+      </c>
+      <c r="K130" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130" t="s">
+        <v>23</v>
+      </c>
+      <c r="M130">
+        <v>56</v>
+      </c>
+      <c r="N130" t="s">
+        <v>31</v>
+      </c>
+      <c r="O130" t="s">
+        <v>33</v>
+      </c>
+      <c r="P130" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q130">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2020</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131">
+        <v>130901</v>
+      </c>
+      <c r="F131" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131">
+        <v>851</v>
+      </c>
+      <c r="H131" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131">
+        <v>5355</v>
+      </c>
+      <c r="J131" t="s">
+        <v>82</v>
+      </c>
+      <c r="K131" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" t="s">
+        <v>23</v>
+      </c>
+      <c r="M131">
+        <v>59</v>
+      </c>
+      <c r="N131" t="s">
+        <v>83</v>
+      </c>
+      <c r="O131" t="s">
+        <v>25</v>
+      </c>
+      <c r="P131" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2020</v>
+      </c>
+      <c r="B132">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>67</v>
+      </c>
+      <c r="E132">
+        <v>130901</v>
+      </c>
+      <c r="F132" t="s">
+        <v>68</v>
+      </c>
+      <c r="G132">
+        <v>851</v>
+      </c>
+      <c r="H132" t="s">
+        <v>69</v>
+      </c>
+      <c r="I132">
+        <v>5355</v>
+      </c>
+      <c r="J132" t="s">
+        <v>82</v>
+      </c>
+      <c r="K132" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132" t="s">
+        <v>23</v>
+      </c>
+      <c r="M132">
+        <v>62</v>
+      </c>
+      <c r="N132" t="s">
+        <v>24</v>
+      </c>
+      <c r="O132" t="s">
+        <v>33</v>
+      </c>
+      <c r="P132" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2020</v>
+      </c>
+      <c r="B133">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>67</v>
+      </c>
+      <c r="E133">
+        <v>130901</v>
+      </c>
+      <c r="F133" t="s">
+        <v>68</v>
+      </c>
+      <c r="G133">
+        <v>851</v>
+      </c>
+      <c r="H133" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133">
+        <v>5355</v>
+      </c>
+      <c r="J133" t="s">
+        <v>82</v>
+      </c>
+      <c r="K133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133" t="s">
+        <v>23</v>
+      </c>
+      <c r="M133">
+        <v>71</v>
+      </c>
+      <c r="N133" t="s">
+        <v>78</v>
+      </c>
+      <c r="O133" t="s">
+        <v>25</v>
+      </c>
+      <c r="P133" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2020</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E134">
+        <v>130901</v>
+      </c>
+      <c r="F134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G134">
+        <v>851</v>
+      </c>
+      <c r="H134" t="s">
+        <v>69</v>
+      </c>
+      <c r="I134">
+        <v>5355</v>
+      </c>
+      <c r="J134" t="s">
+        <v>82</v>
+      </c>
+      <c r="K134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134" t="s">
+        <v>23</v>
+      </c>
+      <c r="M134">
+        <v>75</v>
+      </c>
+      <c r="N134" t="s">
+        <v>47</v>
+      </c>
+      <c r="O134" t="s">
+        <v>25</v>
+      </c>
+      <c r="P134" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2020</v>
+      </c>
+      <c r="B135">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135">
+        <v>130901</v>
+      </c>
+      <c r="F135" t="s">
+        <v>68</v>
+      </c>
+      <c r="G135">
+        <v>851</v>
+      </c>
+      <c r="H135" t="s">
+        <v>69</v>
+      </c>
+      <c r="I135">
+        <v>5355</v>
+      </c>
+      <c r="J135" t="s">
+        <v>82</v>
+      </c>
+      <c r="K135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" t="s">
+        <v>23</v>
+      </c>
+      <c r="M135">
+        <v>75</v>
+      </c>
+      <c r="N135" t="s">
+        <v>47</v>
+      </c>
+      <c r="O135" t="s">
+        <v>33</v>
+      </c>
+      <c r="P135" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2020</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>67</v>
+      </c>
+      <c r="E136">
+        <v>130901</v>
+      </c>
+      <c r="F136" t="s">
+        <v>68</v>
+      </c>
+      <c r="G136">
+        <v>851</v>
+      </c>
+      <c r="H136" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136">
+        <v>5355</v>
+      </c>
+      <c r="J136" t="s">
+        <v>82</v>
+      </c>
+      <c r="K136" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" t="s">
+        <v>27</v>
+      </c>
+      <c r="M136">
+        <v>9</v>
+      </c>
+      <c r="N136" t="s">
+        <v>28</v>
+      </c>
+      <c r="O136" t="s">
+        <v>25</v>
+      </c>
+      <c r="P136" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2020</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>67</v>
+      </c>
+      <c r="E137">
+        <v>130901</v>
+      </c>
+      <c r="F137" t="s">
+        <v>68</v>
+      </c>
+      <c r="G137">
+        <v>851</v>
+      </c>
+      <c r="H137" t="s">
+        <v>69</v>
+      </c>
+      <c r="I137">
+        <v>5355</v>
+      </c>
+      <c r="J137" t="s">
+        <v>82</v>
+      </c>
+      <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" t="s">
+        <v>27</v>
+      </c>
+      <c r="M137">
+        <v>9</v>
+      </c>
+      <c r="N137" t="s">
+        <v>28</v>
+      </c>
+      <c r="O137" t="s">
+        <v>25</v>
+      </c>
+      <c r="P137" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2020</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>67</v>
+      </c>
+      <c r="E138">
+        <v>130901</v>
+      </c>
+      <c r="F138" t="s">
+        <v>68</v>
+      </c>
+      <c r="G138">
+        <v>851</v>
+      </c>
+      <c r="H138" t="s">
+        <v>69</v>
+      </c>
+      <c r="I138">
+        <v>18123</v>
+      </c>
+      <c r="J138" t="s">
+        <v>84</v>
+      </c>
+      <c r="K138" t="s">
+        <v>22</v>
+      </c>
+      <c r="L138" t="s">
+        <v>23</v>
+      </c>
+      <c r="M138">
+        <v>56</v>
+      </c>
+      <c r="N138" t="s">
+        <v>31</v>
+      </c>
+      <c r="O138" t="s">
+        <v>33</v>
+      </c>
+      <c r="P138" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2020</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" t="s">
+        <v>67</v>
+      </c>
+      <c r="E139">
+        <v>130901</v>
+      </c>
+      <c r="F139" t="s">
+        <v>68</v>
+      </c>
+      <c r="G139">
+        <v>851</v>
+      </c>
+      <c r="H139" t="s">
+        <v>69</v>
+      </c>
+      <c r="I139">
+        <v>18123</v>
+      </c>
+      <c r="J139" t="s">
+        <v>84</v>
+      </c>
+      <c r="K139" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139" t="s">
+        <v>23</v>
+      </c>
+      <c r="M139">
+        <v>71</v>
+      </c>
+      <c r="N139" t="s">
+        <v>78</v>
+      </c>
+      <c r="O139" t="s">
+        <v>25</v>
+      </c>
+      <c r="P139" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2020</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>67</v>
+      </c>
+      <c r="E140">
+        <v>130901</v>
+      </c>
+      <c r="F140" t="s">
+        <v>68</v>
+      </c>
+      <c r="G140">
+        <v>851</v>
+      </c>
+      <c r="H140" t="s">
+        <v>69</v>
+      </c>
+      <c r="I140">
+        <v>18123</v>
+      </c>
+      <c r="J140" t="s">
+        <v>84</v>
+      </c>
+      <c r="K140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140" t="s">
+        <v>23</v>
+      </c>
+      <c r="M140">
+        <v>75</v>
+      </c>
+      <c r="N140" t="s">
+        <v>47</v>
+      </c>
+      <c r="O140" t="s">
+        <v>25</v>
+      </c>
+      <c r="P140" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2020</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>67</v>
+      </c>
+      <c r="E141">
+        <v>130901</v>
+      </c>
+      <c r="F141" t="s">
+        <v>68</v>
+      </c>
+      <c r="G141">
+        <v>851</v>
+      </c>
+      <c r="H141" t="s">
+        <v>69</v>
+      </c>
+      <c r="I141">
+        <v>18123</v>
+      </c>
+      <c r="J141" t="s">
+        <v>84</v>
+      </c>
+      <c r="K141" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141" t="s">
+        <v>23</v>
+      </c>
+      <c r="M141">
+        <v>75</v>
+      </c>
+      <c r="N141" t="s">
+        <v>47</v>
+      </c>
+      <c r="O141" t="s">
+        <v>33</v>
+      </c>
+      <c r="P141" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
